--- a/biology/Botanique/Banvin/Banvin.xlsx
+++ b/biology/Botanique/Banvin/Banvin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abanvin, Ban a vin, Banvin était un droit féodal.
 Au Moyen Âge et sous l'Ancien Régime, seul le seigneur pouvait vendre son vin, dans sa seigneurie, pendant 30 ou 40 jours après le ban des vendanges. C'était un droit qu'avait le seigneur d'empêcher qu'il ne se vendit en détail, d'autre vin que le sien pendant un certain temps, qui était d'un mois ou six semaines, suivant l'usage des lieux.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictionnaire de Droit, par de Ferrière, t. 1, p. 171.
  Portail de la vigne et du vin   Portail du droit   Portail du Moyen Âge                   </t>
